--- a/evaluations/kopp/aya/ans.xlsx
+++ b/evaluations/kopp/aya/ans.xlsx
@@ -128,11 +128,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -168,6 +170,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,7 +238,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,11 +254,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,8 +387,8 @@
   </sheetPr>
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H169" activeCellId="0" sqref="H169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,80 +420,80 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -506,13 +513,13 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -532,13 +539,13 @@
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -558,13 +565,13 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -584,13 +591,13 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -610,13 +617,13 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -636,13 +643,13 @@
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -662,13 +669,13 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -688,13 +695,13 @@
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -714,13 +721,13 @@
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -740,13 +747,13 @@
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -766,13 +773,13 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -792,13 +799,13 @@
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -818,13 +825,13 @@
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -844,13 +851,13 @@
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -870,13 +877,13 @@
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -896,13 +903,13 @@
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -922,13 +929,13 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -948,13 +955,13 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -974,13 +981,13 @@
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1000,13 +1007,13 @@
       <c r="E24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1027,12 +1034,12 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1052,13 +1059,13 @@
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1078,13 +1085,13 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1104,13 +1111,13 @@
       <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1130,13 +1137,13 @@
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1156,13 +1163,13 @@
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1182,13 +1189,13 @@
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1208,13 +1215,13 @@
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1234,13 +1241,13 @@
       <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1260,13 +1267,13 @@
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1286,13 +1293,13 @@
       <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1312,13 +1319,13 @@
       <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1338,13 +1345,13 @@
       <c r="E37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1364,13 +1371,13 @@
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1390,13 +1397,13 @@
       <c r="E39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1416,13 +1423,13 @@
       <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1442,13 +1449,13 @@
       <c r="E41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1468,13 +1475,13 @@
       <c r="E42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1494,13 +1501,13 @@
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1520,13 +1527,13 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1546,13 +1553,13 @@
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1572,13 +1579,13 @@
       <c r="E46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1598,13 +1605,13 @@
       <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1624,13 +1631,13 @@
       <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1650,13 +1657,13 @@
       <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1676,13 +1683,13 @@
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1702,13 +1709,13 @@
       <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1728,13 +1735,13 @@
       <c r="E52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="H52" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1754,13 +1761,13 @@
       <c r="E53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1780,13 +1787,13 @@
       <c r="E54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1806,13 +1813,13 @@
       <c r="E55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1832,13 +1839,13 @@
       <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1858,13 +1865,13 @@
       <c r="E57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1884,13 +1891,13 @@
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1910,13 +1917,13 @@
       <c r="E59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1936,13 +1943,13 @@
       <c r="E60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1962,13 +1969,13 @@
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1988,13 +1995,13 @@
       <c r="E62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2014,13 +2021,13 @@
       <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2040,13 +2047,13 @@
       <c r="E64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2066,13 +2073,13 @@
       <c r="E65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="H65" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2092,13 +2099,13 @@
       <c r="E66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2118,13 +2125,13 @@
       <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="H67" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2144,13 +2151,13 @@
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="H68" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2170,13 +2177,13 @@
       <c r="E69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2197,12 +2204,12 @@
         <v>9</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="H70" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2222,13 +2229,13 @@
       <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2248,13 +2255,13 @@
       <c r="E72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H72" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2274,13 +2281,13 @@
       <c r="E73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="H73" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2300,13 +2307,13 @@
       <c r="E74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2326,13 +2333,13 @@
       <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2352,13 +2359,13 @@
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2378,13 +2385,13 @@
       <c r="E77" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2404,13 +2411,13 @@
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H78" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2430,13 +2437,13 @@
       <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2456,13 +2463,13 @@
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="H80" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2482,13 +2489,13 @@
       <c r="E81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2509,12 +2516,12 @@
         <v>24</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="H82" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2534,13 +2541,13 @@
       <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="H83" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2560,13 +2567,13 @@
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="H84" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2586,13 +2593,13 @@
       <c r="E85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="H85" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2612,13 +2619,13 @@
       <c r="E86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="0" t="s">
+      <c r="H86" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2638,13 +2645,13 @@
       <c r="E87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="0" t="s">
+      <c r="H87" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2664,13 +2671,13 @@
       <c r="E88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="0" t="s">
+      <c r="H88" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2690,13 +2697,13 @@
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="H89" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2716,13 +2723,13 @@
       <c r="E90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="0" t="s">
+      <c r="H90" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2742,13 +2749,13 @@
       <c r="E91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="H91" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2768,13 +2775,13 @@
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="0" t="s">
+      <c r="H92" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2794,13 +2801,13 @@
       <c r="E93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H93" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2820,13 +2827,13 @@
       <c r="E94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="H94" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2846,13 +2853,13 @@
       <c r="E95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2872,13 +2879,13 @@
       <c r="E96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="0" t="s">
+      <c r="H96" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2898,13 +2905,13 @@
       <c r="E97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="H97" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2924,13 +2931,13 @@
       <c r="E98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="0" t="s">
+      <c r="H98" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2950,13 +2957,13 @@
       <c r="E99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="H99" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2976,13 +2983,13 @@
       <c r="E100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="0" t="s">
+      <c r="H100" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3002,13 +3009,13 @@
       <c r="E101" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="0" t="s">
+      <c r="H101" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3028,13 +3035,13 @@
       <c r="E102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="H102" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3054,13 +3061,13 @@
       <c r="E103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H103" s="0" t="s">
+      <c r="H103" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3081,12 +3088,12 @@
         <v>13</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H104" s="0" t="s">
+      <c r="H104" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3106,13 +3113,13 @@
       <c r="E105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="0" t="s">
+      <c r="H105" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3132,13 +3139,13 @@
       <c r="E106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H106" s="0" t="s">
+      <c r="H106" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3158,13 +3165,13 @@
       <c r="E107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H107" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3184,13 +3191,13 @@
       <c r="E108" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="H108" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3210,13 +3217,13 @@
       <c r="E109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3236,13 +3243,13 @@
       <c r="E110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H110" s="0" t="s">
+      <c r="H110" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3262,13 +3269,13 @@
       <c r="E111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="0" t="s">
+      <c r="H111" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3288,13 +3295,13 @@
       <c r="E112" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H112" s="0" t="s">
+      <c r="H112" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3314,13 +3321,13 @@
       <c r="E113" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H113" s="0" t="s">
+      <c r="H113" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3340,13 +3347,13 @@
       <c r="E114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="0" t="s">
+      <c r="H114" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3366,13 +3373,13 @@
       <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H115" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3392,13 +3399,13 @@
       <c r="E116" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3418,13 +3425,13 @@
       <c r="E117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="0" t="s">
+      <c r="H117" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3444,13 +3451,13 @@
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="0" t="s">
+      <c r="H118" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3470,13 +3477,13 @@
       <c r="E119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H119" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3496,13 +3503,13 @@
       <c r="E120" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H120" s="0" t="s">
+      <c r="H120" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3522,13 +3529,13 @@
       <c r="E121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H121" s="0" t="s">
+      <c r="H121" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3548,13 +3555,13 @@
       <c r="E122" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="0" t="s">
+      <c r="H122" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3574,13 +3581,13 @@
       <c r="E123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="H123" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3600,13 +3607,13 @@
       <c r="E124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H124" s="0" t="s">
+      <c r="H124" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3626,13 +3633,13 @@
       <c r="E125" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="0" t="s">
+      <c r="H125" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3652,13 +3659,13 @@
       <c r="E126" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H126" s="0" t="s">
+      <c r="H126" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3678,13 +3685,13 @@
       <c r="E127" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="0" t="s">
+      <c r="H127" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3704,13 +3711,13 @@
       <c r="E128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H128" s="0" t="s">
+      <c r="H128" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3730,13 +3737,13 @@
       <c r="E129" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H129" s="0" t="s">
+      <c r="H129" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3756,13 +3763,13 @@
       <c r="E130" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="0" t="s">
+      <c r="H130" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3782,13 +3789,13 @@
       <c r="E131" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="0" t="s">
+      <c r="H131" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3808,13 +3815,13 @@
       <c r="E132" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="0" t="s">
+      <c r="H132" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3834,13 +3841,13 @@
       <c r="E133" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="0" t="s">
+      <c r="H133" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3860,13 +3867,13 @@
       <c r="E134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H134" s="0" t="s">
+      <c r="H134" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3886,13 +3893,13 @@
       <c r="E135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="0" t="s">
+      <c r="H135" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3912,13 +3919,13 @@
       <c r="E136" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H136" s="0" t="s">
+      <c r="H136" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3938,13 +3945,13 @@
       <c r="E137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H137" s="0" t="s">
+      <c r="H137" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3964,13 +3971,13 @@
       <c r="E138" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="0" t="s">
+      <c r="H138" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3990,13 +3997,13 @@
       <c r="E139" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H139" s="0" t="s">
+      <c r="H139" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4016,13 +4023,13 @@
       <c r="E140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H140" s="0" t="s">
+      <c r="H140" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4042,13 +4049,13 @@
       <c r="E141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H141" s="0" t="s">
+      <c r="H141" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4068,13 +4075,13 @@
       <c r="E142" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="0" t="s">
+      <c r="H142" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4094,13 +4101,13 @@
       <c r="E143" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H143" s="0" t="s">
+      <c r="H143" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4120,13 +4127,13 @@
       <c r="E144" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H144" s="0" t="s">
+      <c r="H144" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4146,13 +4153,13 @@
       <c r="E145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H145" s="0" t="s">
+      <c r="H145" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4172,13 +4179,13 @@
       <c r="E146" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="0" t="s">
+      <c r="H146" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4198,13 +4205,13 @@
       <c r="E147" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H147" s="0" t="s">
+      <c r="H147" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4224,13 +4231,13 @@
       <c r="E148" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H148" s="0" t="s">
+      <c r="H148" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4250,13 +4257,13 @@
       <c r="E149" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H149" s="0" t="s">
+      <c r="H149" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4276,13 +4283,13 @@
       <c r="E150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="0" t="s">
+      <c r="H150" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4302,13 +4309,13 @@
       <c r="E151" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H151" s="0" t="s">
+      <c r="H151" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4328,13 +4335,13 @@
       <c r="E152" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H152" s="0" t="s">
+      <c r="H152" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4354,13 +4361,13 @@
       <c r="E153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="0" t="s">
+      <c r="H153" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4380,13 +4387,13 @@
       <c r="E154" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H154" s="0" t="s">
+      <c r="H154" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4406,13 +4413,13 @@
       <c r="E155" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H155" s="0" t="s">
+      <c r="H155" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4432,13 +4439,13 @@
       <c r="E156" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H156" s="0" t="s">
+      <c r="H156" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4458,13 +4465,13 @@
       <c r="E157" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H157" s="0" t="s">
+      <c r="H157" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4484,13 +4491,13 @@
       <c r="E158" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H158" s="0" t="s">
+      <c r="H158" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4510,13 +4517,13 @@
       <c r="E159" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="0" t="s">
+      <c r="H159" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4536,13 +4543,13 @@
       <c r="E160" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="0" t="s">
+      <c r="H160" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4562,13 +4569,13 @@
       <c r="E161" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H161" s="0" t="s">
+      <c r="H161" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4588,13 +4595,13 @@
       <c r="E162" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="0" t="s">
+      <c r="H162" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4614,13 +4621,13 @@
       <c r="E163" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H163" s="0" t="s">
+      <c r="H163" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4640,13 +4647,13 @@
       <c r="E164" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H164" s="0" t="s">
+      <c r="H164" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4666,13 +4673,13 @@
       <c r="E165" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H165" s="0" t="s">
+      <c r="H165" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4692,13 +4699,13 @@
       <c r="E166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H166" s="0" t="s">
+      <c r="H166" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4718,13 +4725,13 @@
       <c r="E167" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H167" s="0" t="s">
+      <c r="H167" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4744,13 +4751,13 @@
       <c r="E168" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H168" s="0" t="s">
+      <c r="H168" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4770,13 +4777,13 @@
       <c r="E169" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H169" s="0" t="s">
+      <c r="H169" s="3" t="s">
         <v>16</v>
       </c>
     </row>
